--- a/informatics/Labs/lab5/lab5.xlsx
+++ b/informatics/Labs/lab5/lab5.xlsx
@@ -1,15 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1D9A04-7A94-4ABD-868A-EC32B0569673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="4725" yWindow="3247" windowWidth="14175" windowHeight="8633" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -239,7 +251,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,7 +374,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -467,6 +479,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -502,6 +531,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -677,32 +723,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="1" max="2" width="7.1328125" customWidth="1"/>
+    <col min="3" max="4" width="9.73046875" customWidth="1"/>
+    <col min="5" max="5" width="6.73046875" customWidth="1"/>
     <col min="6" max="7" width="4" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" customWidth="1"/>
     <col min="9" max="27" width="4" customWidth="1"/>
-    <col min="28" max="28" width="4.5703125" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" customWidth="1"/>
+    <col min="28" max="28" width="4.59765625" customWidth="1"/>
+    <col min="29" max="29" width="10.59765625" customWidth="1"/>
     <col min="30" max="30" width="9" customWidth="1"/>
-    <col min="31" max="31" width="8.5703125" customWidth="1"/>
-    <col min="32" max="32" width="10.5703125" customWidth="1"/>
-    <col min="33" max="33" width="4.5703125" customWidth="1"/>
-    <col min="34" max="34" width="84.42578125" customWidth="1"/>
-    <col min="35" max="64" width="4.5703125" customWidth="1"/>
+    <col min="31" max="31" width="8.59765625" customWidth="1"/>
+    <col min="32" max="32" width="10.59765625" customWidth="1"/>
+    <col min="33" max="33" width="4.59765625" customWidth="1"/>
+    <col min="34" max="34" width="84.3984375" customWidth="1"/>
+    <col min="35" max="64" width="4.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="15.75" x14ac:dyDescent="0.45">
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
@@ -719,7 +765,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -727,7 +773,7 @@
         <v>15116</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C3" s="2"/>
       <c r="I3" s="7">
         <v>15</v>
@@ -787,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -884,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -981,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1078,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1175,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1272,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1370,7 +1416,7 @@
       </c>
       <c r="AD9" s="11"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1467,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1564,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1661,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1758,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1855,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1952,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:34" x14ac:dyDescent="0.45">
       <c r="C17" s="15" t="s">
         <v>40</v>
       </c>
@@ -2031,7 +2077,7 @@
       </c>
       <c r="AA17" s="9"/>
     </row>
-    <row r="18" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:34" x14ac:dyDescent="0.45">
       <c r="C18" s="8" t="s">
         <v>26</v>
       </c>
@@ -2133,7 +2179,7 @@
         <v>4982</v>
       </c>
     </row>
-    <row r="19" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:34" x14ac:dyDescent="0.45">
       <c r="G19" s="17"/>
       <c r="H19" s="9" t="str">
         <f>D18</f>
@@ -2225,7 +2271,7 @@
         <v>15116</v>
       </c>
     </row>
-    <row r="20" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:34" x14ac:dyDescent="0.45">
       <c r="I20" s="6">
         <f t="shared" ref="I20:Z20" si="6">IF(I19=".",I19,MOD(I19+I18+I17,2))</f>
         <v>0</v>
@@ -2321,7 +2367,7 @@
         <v>Результат корректный</v>
       </c>
     </row>
-    <row r="21" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:34" x14ac:dyDescent="0.45">
       <c r="I21" s="6" t="str">
         <f>IF(I20=0,"",1)</f>
         <v/>
@@ -2400,7 +2446,7 @@
       </c>
       <c r="AC21" s="11"/>
     </row>
-    <row r="22" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:34" x14ac:dyDescent="0.45">
       <c r="I22" t="s">
         <v>45</v>
       </c>
@@ -2445,13 +2491,13 @@
       </c>
       <c r="AC22" s="11"/>
     </row>
-    <row r="23" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:34" x14ac:dyDescent="0.45">
       <c r="AC23" s="11"/>
     </row>
-    <row r="24" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:34" x14ac:dyDescent="0.45">
       <c r="AC24" s="11"/>
     </row>
-    <row r="25" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:34" x14ac:dyDescent="0.45">
       <c r="C25" s="15" t="s">
         <v>40</v>
       </c>
@@ -2531,7 +2577,7 @@
       <c r="AA25" s="9"/>
       <c r="AC25" s="11"/>
     </row>
-    <row r="26" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:34" x14ac:dyDescent="0.45">
       <c r="C26" s="8" t="s">
         <v>28</v>
       </c>
@@ -2634,7 +2680,7 @@
         <v>15116</v>
       </c>
     </row>
-    <row r="27" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:34" x14ac:dyDescent="0.45">
       <c r="G27" s="17"/>
       <c r="H27" s="9" t="str">
         <f>D26</f>
@@ -2727,7 +2773,7 @@
         <v>20098</v>
       </c>
     </row>
-    <row r="28" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:34" x14ac:dyDescent="0.45">
       <c r="I28" s="6">
         <f t="shared" ref="I28" si="27">IF(I27=".",I27,MOD(I27+I26+I25,2))</f>
         <v>1</v>
@@ -2823,7 +2869,7 @@
         <v>При сложении положительных чисел получен отрицательный результат – переполнение</v>
       </c>
     </row>
-    <row r="29" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:34" x14ac:dyDescent="0.45">
       <c r="I29" s="6">
         <f>IF(I28=0,"",1)</f>
         <v>1</v>
@@ -2901,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:34" x14ac:dyDescent="0.45">
       <c r="I30" t="s">
         <v>45</v>
       </c>
@@ -2945,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:34" x14ac:dyDescent="0.45">
       <c r="C33" s="15" t="s">
         <v>40</v>
       </c>
@@ -3025,7 +3071,7 @@
       <c r="AA33" s="9"/>
       <c r="AC33" s="11"/>
     </row>
-    <row r="34" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:34" x14ac:dyDescent="0.45">
       <c r="C34" s="8" t="s">
         <v>28</v>
       </c>
@@ -3128,7 +3174,7 @@
         <v>15116</v>
       </c>
     </row>
-    <row r="35" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:34" x14ac:dyDescent="0.45">
       <c r="G35" s="17"/>
       <c r="H35" s="9" t="str">
         <f>D34</f>
@@ -3221,7 +3267,7 @@
         <v>-4982</v>
       </c>
     </row>
-    <row r="36" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:34" x14ac:dyDescent="0.45">
       <c r="I36" s="6">
         <f t="shared" ref="I36" si="65">IF(I35=".",I35,MOD(I35+I34+I33,2))</f>
         <v>0</v>
@@ -3317,7 +3363,7 @@
         <v>Результат корректный. Перенос из старшего разряда не учитывается</v>
       </c>
     </row>
-    <row r="37" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:34" x14ac:dyDescent="0.45">
       <c r="I37" s="6" t="str">
         <f>IF(I36=0,"",1)</f>
         <v/>
@@ -3395,7 +3441,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:34" x14ac:dyDescent="0.45">
       <c r="I38" t="s">
         <v>45</v>
       </c>
@@ -3439,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:34" x14ac:dyDescent="0.45">
       <c r="C41" s="15" t="s">
         <v>40</v>
       </c>
@@ -3519,7 +3565,7 @@
       <c r="AA41" s="9"/>
       <c r="AC41" s="11"/>
     </row>
-    <row r="42" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:34" x14ac:dyDescent="0.45">
       <c r="C42" s="8" t="s">
         <v>33</v>
       </c>
@@ -3622,7 +3668,7 @@
         <v>-4982</v>
       </c>
     </row>
-    <row r="43" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:34" x14ac:dyDescent="0.45">
       <c r="G43" s="17"/>
       <c r="H43" s="9" t="str">
         <f>D42</f>
@@ -3715,7 +3761,7 @@
         <v>-15116</v>
       </c>
     </row>
-    <row r="44" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:34" x14ac:dyDescent="0.45">
       <c r="I44" s="6">
         <f t="shared" ref="I44" si="103">IF(I43=".",I43,MOD(I43+I42+I41,2))</f>
         <v>1</v>
@@ -3811,7 +3857,7 @@
         <v>Результат корректный. Перенос из старшего разряда не учитывается</v>
       </c>
     </row>
-    <row r="45" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:34" x14ac:dyDescent="0.45">
       <c r="I45" s="6">
         <f>IF(I44=0,"",1)</f>
         <v>1</v>
@@ -3889,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:34" x14ac:dyDescent="0.45">
       <c r="I46" t="s">
         <v>45</v>
       </c>
@@ -3933,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:34" x14ac:dyDescent="0.45">
       <c r="C49" s="15" t="s">
         <v>40</v>
       </c>
@@ -4013,7 +4059,7 @@
       <c r="AA49" s="9"/>
       <c r="AC49" s="11"/>
     </row>
-    <row r="50" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:34" x14ac:dyDescent="0.45">
       <c r="C50" s="8" t="s">
         <v>34</v>
       </c>
@@ -4116,7 +4162,7 @@
         <v>-15116</v>
       </c>
     </row>
-    <row r="51" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:34" x14ac:dyDescent="0.45">
       <c r="G51" s="17"/>
       <c r="H51" s="9" t="str">
         <f>D50</f>
@@ -4209,7 +4255,7 @@
         <v>-20098</v>
       </c>
     </row>
-    <row r="52" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:34" x14ac:dyDescent="0.45">
       <c r="I52" s="6">
         <f t="shared" ref="I52" si="141">IF(I51=".",I51,MOD(I51+I50+I49,2))</f>
         <v>0</v>
@@ -4305,7 +4351,7 @@
         <v>При сложении отрицательных чисел получен положительный результат – переполнение</v>
       </c>
     </row>
-    <row r="53" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:34" x14ac:dyDescent="0.45">
       <c r="I53" s="6" t="str">
         <f>IF(I52=0,"",1)</f>
         <v/>
@@ -4383,7 +4429,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:34" x14ac:dyDescent="0.45">
       <c r="I54" t="s">
         <v>45</v>
       </c>
@@ -4427,7 +4473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:34" x14ac:dyDescent="0.45">
       <c r="C57" s="15" t="s">
         <v>40</v>
       </c>
@@ -4507,7 +4553,7 @@
       <c r="AA57" s="9"/>
       <c r="AC57" s="11"/>
     </row>
-    <row r="58" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:34" x14ac:dyDescent="0.45">
       <c r="C58" s="8" t="s">
         <v>26</v>
       </c>
@@ -4610,7 +4656,7 @@
         <v>4982</v>
       </c>
     </row>
-    <row r="59" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:34" x14ac:dyDescent="0.45">
       <c r="G59" s="17"/>
       <c r="H59" s="9" t="str">
         <f>D58</f>
@@ -4703,7 +4749,7 @@
         <v>-15116</v>
       </c>
     </row>
-    <row r="60" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:34" x14ac:dyDescent="0.45">
       <c r="I60" s="6">
         <f t="shared" ref="I60" si="179">IF(I59=".",I59,MOD(I59+I58+I57,2))</f>
         <v>1</v>
@@ -4799,7 +4845,7 @@
         <v>Результат корректный</v>
       </c>
     </row>
-    <row r="61" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:34" x14ac:dyDescent="0.45">
       <c r="I61" s="6">
         <f>IF(I60=0,"",1)</f>
         <v>1</v>
@@ -4877,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:34" x14ac:dyDescent="0.45">
       <c r="I62" t="s">
         <v>45</v>
       </c>
@@ -4921,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:34" x14ac:dyDescent="0.45">
       <c r="C65" s="15" t="s">
         <v>40</v>
       </c>
@@ -5001,7 +5047,7 @@
       <c r="AA65" s="9"/>
       <c r="AC65" s="11"/>
     </row>
-    <row r="66" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:34" x14ac:dyDescent="0.45">
       <c r="C66" s="8" t="s">
         <v>37</v>
       </c>
@@ -5104,7 +5150,7 @@
         <v>-10134</v>
       </c>
     </row>
-    <row r="67" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:34" x14ac:dyDescent="0.45">
       <c r="G67" s="17"/>
       <c r="H67" s="9" t="str">
         <f>D66</f>
@@ -5197,7 +5243,7 @@
         <v>20098</v>
       </c>
     </row>
-    <row r="68" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:34" x14ac:dyDescent="0.45">
       <c r="I68" s="6">
         <f t="shared" ref="I68" si="217">IF(I67=".",I67,MOD(I67+I66+I65,2))</f>
         <v>0</v>
@@ -5293,7 +5339,7 @@
         <v>Результат корректный. Перенос из старшего разряда не учитывается</v>
       </c>
     </row>
-    <row r="69" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:34" x14ac:dyDescent="0.45">
       <c r="I69" s="6" t="str">
         <f>IF(I68=0,"",1)</f>
         <v/>
@@ -5371,7 +5417,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:34" x14ac:dyDescent="0.45">
       <c r="I70" t="s">
         <v>45</v>
       </c>
@@ -5415,27 +5461,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A90" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A91" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A92" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A93" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.45">
       <c r="I95">
         <v>1</v>
       </c>
@@ -5502,18 +5548,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="AD26:AD27"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="AD34:AD35"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="AD42:AD43"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="G66:G67"/>
     <mergeCell ref="AD66:AD67"/>
@@ -5523,6 +5557,18 @@
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="G58:G59"/>
     <mergeCell ref="AD58:AD59"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="AD34:AD35"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="AD42:AD43"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="AD26:AD27"/>
   </mergeCells>
   <conditionalFormatting sqref="I4:AA7">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="0">
